--- a/期末專案/rawdata/國立成功大學.xlsx
+++ b/期末專案/rawdata/國立成功大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,31 @@
           <t>國文(1.00)、英文(1.50)、數甲(2.00)、物理(1.50)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +566,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.25)、物理(1.25)、化學(1.50)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +608,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +650,31 @@
           <t>國文(1.00)、英文(1.00)、數A(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +692,26 @@
           <t>國文(1.00)、英文(1.25)、數甲(1.75)、物理(1.50)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +729,31 @@
           <t>國文(1.00)、英文(1.50)、數甲(1.00)、物理(1.50)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +771,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +813,26 @@
           <t>國文(1.00)、英文(2.00)、數甲(2.00)、物理(2.00)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +850,31 @@
           <t>英文(1.25)、數A(1.00)、物理(1.00)、化學(1.50)、生物(1.50)</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +892,31 @@
           <t>國文(1.00)、英文(1.25)、數甲(1.00)、化學(1.25)、生物(1.25)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +934,31 @@
           <t>國文(1.00)、英文(1.50)、數甲(1.00)、化學(1.00)、生物(1.50)</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +976,21 @@
           <t>國文(1.50)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +1008,26 @@
           <t>國文(1.50)、英文(2.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +1045,26 @@
           <t>國文(1.25)、英文(1.25)、歷史(1.50)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +1082,31 @@
           <t>國文(1.50)、英文(1.50)、數B(1.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1124,26 @@
           <t>國文(1.00)、英文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1161,26 @@
           <t>國文(1.00)、英文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +1198,26 @@
           <t>國文(1.25)、英文(1.25)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +1235,21 @@
           <t>國文(1.50)、英文(2.00)、數甲(2.00)</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +1267,31 @@
           <t>國文(1.00)、英文(1.00)、數B(1.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1309,31 @@
           <t>英文(1.00)、數A(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1351,21 @@
           <t>國文(1.00)、英文(1.50)、數甲(1.50)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1383,21 @@
           <t>英文(1.00)、數甲(2.00)、物理(2.00)</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1415,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1457,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.25)、物理(1.25)、化學(1.25)</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1499,31 @@
           <t>國文(1.00)、英文(1.00)、數A(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1541,21 @@
           <t>數A(1.00)、物理(1.50)、化學(1.50)</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -913,6 +1573,26 @@
           <t>英文(1.00)、數甲(1.25)、物理(1.25)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,6 +1610,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -947,6 +1652,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -964,6 +1694,31 @@
           <t>國文(1.50)、英文(1.50)、數A(1.50)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -981,6 +1736,26 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -998,6 +1773,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1015,6 +1815,31 @@
           <t>英文(1.00)、數A(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1032,6 +1857,26 @@
           <t>國文(1.00)、英文(1.25)、數甲(1.25)、物理(1.00)</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1049,6 +1894,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1066,6 +1936,26 @@
           <t>國文(1.00)、英文(1.00)、數A(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1083,6 +1973,31 @@
           <t>國文(1.00)、英文(1.25)、數甲(1.00)、物理(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1100,6 +2015,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1117,6 +2057,21 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1134,6 +2089,31 @@
           <t>國文(1.50)、英文(1.50)、數A(1.50)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1151,6 +2131,31 @@
           <t>國文(1.00)、英文(1.50)、數甲(1.50)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1168,6 +2173,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1185,6 +2215,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、化學(1.25)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1202,6 +2257,26 @@
           <t>英文(1.50)、物理(1.00)、化學(1.50)、生物(1.50)</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1219,6 +2294,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1236,6 +2336,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1253,6 +2378,21 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1270,6 +2410,26 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1287,6 +2447,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1302,6 +2487,26 @@
       <c r="C52" t="inlineStr">
         <is>
           <t>國文(1.00)、英文(2.00)、數A(2.00)、公民(2.00)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2.00</t>
         </is>
       </c>
     </row>
